--- a/public/downloads/BPK 3-2025.xlsx
+++ b/public/downloads/BPK 3-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1500" windowWidth="28800" windowHeight="15240"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="List1" state="visible" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
   <si>
     <t>Název:</t>
   </si>
@@ -113,118 +113,76 @@
     <t/>
   </si>
   <si>
-    <t>01.03.2025 06:51:02</t>
+    <t>01.03.2025 06:52:21</t>
   </si>
   <si>
     <t>Jakš Libor</t>
   </si>
   <si>
-    <t>01.03.2025 06:51:36</t>
-  </si>
-  <si>
-    <t>02.03.2025 06:50:56</t>
-  </si>
-  <si>
-    <t>02.03.2025 06:51:05</t>
-  </si>
-  <si>
-    <t>03.03.2025 07:23:59</t>
-  </si>
-  <si>
-    <t>03.03.2025 15:51:10</t>
-  </si>
-  <si>
-    <t>04.03.2025 07:35:54</t>
-  </si>
-  <si>
-    <t>04.03.2025 15:38:46</t>
-  </si>
-  <si>
-    <t>05.03.2025 07:30:05</t>
-  </si>
-  <si>
-    <t>05.03.2025 15:33:32</t>
-  </si>
-  <si>
-    <t>06.03.2025 07:30:24</t>
-  </si>
-  <si>
-    <t>06.03.2025 16:02:16</t>
-  </si>
-  <si>
-    <t>07.03.2025 07:34:16</t>
-  </si>
-  <si>
-    <t>07.03.2025 15:50:03</t>
-  </si>
-  <si>
-    <t>08.03.2025 06:54:29</t>
+    <t>01.03.2025 06:52:51</t>
+  </si>
+  <si>
+    <t>02.03.2025 06:52:15</t>
+  </si>
+  <si>
+    <t>02.03.2025 06:52:29</t>
+  </si>
+  <si>
+    <t>03.03.2025 07:25:18</t>
+  </si>
+  <si>
+    <t>03.03.2025 15:52:30</t>
+  </si>
+  <si>
+    <t>04.03.2025 07:37:12</t>
+  </si>
+  <si>
+    <t>04.03.2025 15:40:05</t>
+  </si>
+  <si>
+    <t>05.03.2025 07:31:23</t>
+  </si>
+  <si>
+    <t>05.03.2025 15:34:51</t>
+  </si>
+  <si>
+    <t>06.03.2025 07:32:36</t>
+  </si>
+  <si>
+    <t>06.03.2025 16:02:01</t>
+  </si>
+  <si>
+    <t>07.03.2025 07:33:52</t>
+  </si>
+  <si>
+    <t>07.03.2025 15:49:37</t>
+  </si>
+  <si>
+    <t>08.03.2025 06:54:17</t>
   </si>
   <si>
     <t>08.03.2025 06:54:38</t>
   </si>
   <si>
-    <t>08.03.2025 18:41:24</t>
-  </si>
-  <si>
-    <t>08.03.2025 18:41:59</t>
-  </si>
-  <si>
-    <t>09.03.2025 06:58:56</t>
-  </si>
-  <si>
-    <t>10.03.2025 07:22:30</t>
-  </si>
-  <si>
-    <t>10.03.2025 15:53:34</t>
-  </si>
-  <si>
-    <t>11.03.2025 17:06:32</t>
-  </si>
-  <si>
-    <t>Kopecký Filip</t>
-  </si>
-  <si>
-    <t>11.03.2025 19:15:45</t>
-  </si>
-  <si>
-    <t>Godor Jozef</t>
-  </si>
-  <si>
-    <t>11.03.2025 19:19:13</t>
-  </si>
-  <si>
-    <t>Mahmudov Masrur</t>
-  </si>
-  <si>
-    <t>12.03.2025 06:08:14</t>
-  </si>
-  <si>
-    <t>12.03.2025 06:49:13</t>
-  </si>
-  <si>
-    <t>12.03.2025 06:49:18</t>
-  </si>
-  <si>
-    <t>Růžičková Jolana</t>
-  </si>
-  <si>
-    <t>12.03.2025 16:59:26</t>
-  </si>
-  <si>
-    <t>12.03.2025 19:10:25</t>
-  </si>
-  <si>
-    <t>13.03.2025 06:59:44</t>
-  </si>
-  <si>
-    <t>Bartůněk Stanislav</t>
-  </si>
-  <si>
-    <t>13.03.2025 07:31:13</t>
-  </si>
-  <si>
-    <t>13.03.2025 16:08:48</t>
+    <t>08.03.2025 18:41:35</t>
+  </si>
+  <si>
+    <t>08.03.2025 18:42:11</t>
+  </si>
+  <si>
+    <t>09.03.2025 09:22:32</t>
+  </si>
+  <si>
+    <t>10.03.2025 07:23:57</t>
+  </si>
+  <si>
+    <t>10.03.2025 15:53:20</t>
+  </si>
+  <si>
+    <t>11.03.2025 15:39:38</t>
+  </si>
+  <si>
+    <t>12.03.2025 07:32:26</t>
   </si>
   <si>
     <t>14.03.2025 15:51:17</t>
@@ -270,6 +228,9 @@
   </si>
   <si>
     <t>20.03.2025 07:32:11</t>
+  </si>
+  <si>
+    <t>20.03.2025 15:54:04</t>
   </si>
 </sst>
 </file>
@@ -279,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -291,12 +252,6 @@
       <color theme="1"/>
       <family val="2"/>
       <sz val="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -385,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,18 +368,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -713,7 +657,7 @@
   <dimension ref="B1:U87"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -3402,10 +3346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -3445,828 +3389,536 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="16">
-        <f>TIMEVALUE(B6)</f>
-        <v>0.28543981481561786</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="D6" s="13">
+        <v>0.28635416666656965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:D35" si="0">TIMEVALUE(B7)</f>
-        <v>0.2858333333315386</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="D7" s="13">
+        <v>0.2867013888899237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.28537037036949187</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="D8" s="13">
+        <v>0.28628472222044365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0.28547453703868086</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="D9" s="13">
+        <v>0.286446759258979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.3083217592575238</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="D10" s="13">
+        <v>0.3092361111121136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6605324074080272</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="D11" s="13">
+        <v>0.6614583333321207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0.3165972222232085</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="D12" s="13">
+        <v>0.31750000000101863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6519212962957681</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="D13" s="13">
+        <v>0.6528356481467199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>0.31255787036934635</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="D14" s="13">
+        <v>0.31346064814715646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6482870370382443</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="D15" s="13">
+        <v>0.6492013888891961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>0.31277777777722804</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="D16" s="13">
+        <v>0.31430555555562023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6682407407424762</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="D17" s="13">
+        <v>0.6680671296307992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>0.31546296296437504</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="D18" s="13">
+        <v>0.315185185183509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6597569444456894</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="D19" s="13">
+        <v>0.6594560185185401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2878356481487572</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="D20" s="13">
+        <v>0.28769675926014315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" si="0"/>
+      <c r="D21" s="13">
         <v>0.2879398148143082</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7787500000013097</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="D22" s="13">
+        <v>0.778877314813144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7791550925940101</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="D23" s="13">
+        <v>0.7792939814826241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2909259259249666</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="D24" s="13">
+        <v>0.3906481481499213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>0.3072916666678793</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="D25" s="13">
+        <v>0.30829861111124046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6621990740750334</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="D26" s="13">
+        <v>0.6620370370364981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.6525231481464289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7128703703710926</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.31418981481328956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.6606134259259259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="16">
-        <f t="shared" si="0"/>
-        <v>0.8026041666671517</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="C30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.27642361111111113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.2765740740740741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="16">
-        <f t="shared" si="0"/>
-        <v>0.8050115740734327</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>0.25571759259401006</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="D32" s="15">
+        <v>0.7738541666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="16">
-        <f t="shared" si="0"/>
-        <v>0.28417824074131204</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.7829050925925926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.28725694444444444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2842361111106584</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="C35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.2972916666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7079398148161999</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="C36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.31471064814814814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7989004629635019</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" ht="16" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="C37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.662662037037037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.3166435185185186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>0.29148148148306063</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="C39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.651701388888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="18">
-        <v>0.3133449074074074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="D40" s="15">
+        <v>0.31340277777777775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0.6727777777777777</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="C41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.6518634259259259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="18">
-        <v>0.6606134259259259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="C42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.3140162037037037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0.27642361111111113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="18">
-        <v>0.2765740740740741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0.7738541666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0.7829050925925926</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0.28725694444444444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="18">
-        <v>0.2972916666666667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="18">
-        <v>0.31471064814814814</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="18">
-        <v>0.662662037037037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="18">
-        <v>0.3166435185185186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0.651701388888889</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.31340277777777775</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0.6518634259259259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0.3140162037037037</v>
+      <c r="D43" s="15">
+        <v>0.6625462962962962</v>
       </c>
     </row>
   </sheetData>
